--- a/Docx_Excel/DA2_TCChucNang.xlsx
+++ b/Docx_Excel/DA2_TCChucNang.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7760" firstSheet="2" activeTab="7"/>
+    <workbookView windowWidth="19200" windowHeight="6800" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="kế hoạch" sheetId="18" r:id="rId1"/>
@@ -2201,10 +2201,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -2407,7 +2407,7 @@
       <charset val="0"/>
     </font>
   </fonts>
-  <fills count="42">
+  <fills count="43">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2465,6 +2465,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3258,14 +3264,14 @@
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="38" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="38" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3273,45 +3279,45 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="44" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="44" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="45" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="46" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" wrapText="1"/>
@@ -3576,6 +3582,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="11" borderId="6" xfId="3" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4240,470 +4251,470 @@
   </cols>
   <sheetData>
     <row r="1" ht="27" customHeight="1" spans="1:4">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="96" t="s">
+      <c r="B1" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="96" t="s">
+      <c r="C1" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="96" t="s">
+      <c r="D1" s="99" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" ht="23" customHeight="1" spans="1:4">
-      <c r="A2" s="96">
+      <c r="A2" s="99">
         <v>1</v>
       </c>
-      <c r="B2" s="97" t="s">
+      <c r="B2" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="98" t="s">
+      <c r="C2" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="98" t="s">
+      <c r="D2" s="101" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="96"/>
-      <c r="B3" s="97"/>
-      <c r="C3" s="98" t="s">
+      <c r="A3" s="99"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="98"/>
+      <c r="D3" s="101"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="96"/>
-      <c r="B4" s="97"/>
-      <c r="C4" s="98" t="s">
+      <c r="A4" s="99"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="98"/>
+      <c r="D4" s="101"/>
     </row>
     <row r="5" ht="22" customHeight="1" spans="1:4">
-      <c r="A5" s="96">
+      <c r="A5" s="99">
         <v>2</v>
       </c>
-      <c r="B5" s="97" t="s">
+      <c r="B5" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="98" t="s">
+      <c r="C5" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="98" t="s">
+      <c r="D5" s="101" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="96"/>
-      <c r="B6" s="97"/>
-      <c r="C6" s="98" t="s">
+      <c r="A6" s="99"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="98"/>
+      <c r="D6" s="101"/>
     </row>
     <row r="7" ht="27" customHeight="1" spans="1:4">
-      <c r="A7" s="96">
+      <c r="A7" s="99">
         <v>3</v>
       </c>
-      <c r="B7" s="97" t="s">
+      <c r="B7" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="98" t="s">
+      <c r="C7" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="98" t="s">
+      <c r="D7" s="101" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="96"/>
-      <c r="B8" s="97"/>
-      <c r="C8" s="98" t="s">
+      <c r="A8" s="99"/>
+      <c r="B8" s="100"/>
+      <c r="C8" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="98"/>
+      <c r="D8" s="101"/>
     </row>
     <row r="9" ht="29" customHeight="1" spans="1:4">
-      <c r="A9" s="96">
+      <c r="A9" s="99">
         <v>4</v>
       </c>
-      <c r="B9" s="97" t="s">
+      <c r="B9" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="98" t="s">
+      <c r="C9" s="101" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="98" t="s">
+      <c r="D9" s="101" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1" spans="1:4">
-      <c r="A10" s="96"/>
-      <c r="B10" s="97"/>
-      <c r="C10" s="98" t="s">
+      <c r="A10" s="99"/>
+      <c r="B10" s="100"/>
+      <c r="C10" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="98"/>
+      <c r="D10" s="101"/>
     </row>
     <row r="11" ht="37" customHeight="1" spans="1:4">
-      <c r="A11" s="96">
+      <c r="A11" s="99">
         <v>5</v>
       </c>
-      <c r="B11" s="97" t="s">
+      <c r="B11" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="98" t="s">
+      <c r="C11" s="101" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="98" t="s">
+      <c r="D11" s="101" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="96"/>
-      <c r="B12" s="97"/>
-      <c r="C12" s="98" t="s">
+      <c r="A12" s="99"/>
+      <c r="B12" s="100"/>
+      <c r="C12" s="101" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="98"/>
+      <c r="D12" s="101"/>
     </row>
     <row r="13" ht="15" customHeight="1" spans="1:4">
-      <c r="A13" s="96">
+      <c r="A13" s="99">
         <v>6</v>
       </c>
-      <c r="B13" s="97" t="s">
+      <c r="B13" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="98" t="s">
+      <c r="C13" s="101" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="98" t="s">
+      <c r="D13" s="101" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="96"/>
-      <c r="B14" s="97"/>
-      <c r="C14" s="98" t="s">
+      <c r="A14" s="99"/>
+      <c r="B14" s="100"/>
+      <c r="C14" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="98"/>
+      <c r="D14" s="101"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="96"/>
-      <c r="B15" s="97"/>
-      <c r="C15" s="98" t="s">
+      <c r="A15" s="99"/>
+      <c r="B15" s="100"/>
+      <c r="C15" s="101" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="98"/>
+      <c r="D15" s="101"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="96"/>
-      <c r="B16" s="97"/>
-      <c r="C16" s="98" t="s">
+      <c r="A16" s="99"/>
+      <c r="B16" s="100"/>
+      <c r="C16" s="101" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="98"/>
+      <c r="D16" s="101"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="96"/>
-      <c r="B17" s="97"/>
-      <c r="C17" s="98" t="s">
+      <c r="A17" s="99"/>
+      <c r="B17" s="100"/>
+      <c r="C17" s="101" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="98"/>
+      <c r="D17" s="101"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="96"/>
-      <c r="B18" s="97"/>
-      <c r="C18" s="98" t="s">
+      <c r="A18" s="99"/>
+      <c r="B18" s="100"/>
+      <c r="C18" s="101" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="98"/>
+      <c r="D18" s="101"/>
     </row>
     <row r="19" ht="16" customHeight="1" spans="1:4">
-      <c r="A19" s="96">
+      <c r="A19" s="99">
         <v>7</v>
       </c>
-      <c r="B19" s="97" t="s">
+      <c r="B19" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="98" t="s">
+      <c r="C19" s="101" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="98" t="s">
+      <c r="D19" s="101" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="96"/>
-      <c r="B20" s="97"/>
-      <c r="C20" s="98" t="s">
+      <c r="A20" s="99"/>
+      <c r="B20" s="100"/>
+      <c r="C20" s="101" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="98"/>
+      <c r="D20" s="101"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="96"/>
-      <c r="B21" s="97"/>
-      <c r="C21" s="98" t="s">
+      <c r="A21" s="99"/>
+      <c r="B21" s="100"/>
+      <c r="C21" s="101" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="98"/>
+      <c r="D21" s="101"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="96"/>
-      <c r="B22" s="97"/>
-      <c r="C22" s="98" t="s">
+      <c r="A22" s="99"/>
+      <c r="B22" s="100"/>
+      <c r="C22" s="101" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="98"/>
+      <c r="D22" s="101"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="96"/>
-      <c r="B23" s="97"/>
-      <c r="C23" s="98" t="s">
+      <c r="A23" s="99"/>
+      <c r="B23" s="100"/>
+      <c r="C23" s="101" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="98"/>
+      <c r="D23" s="101"/>
     </row>
     <row r="24" ht="19" customHeight="1" spans="1:4">
-      <c r="A24" s="96">
+      <c r="A24" s="99">
         <v>8</v>
       </c>
-      <c r="B24" s="97" t="s">
+      <c r="B24" s="100" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="98" t="s">
+      <c r="C24" s="101" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="98" t="s">
+      <c r="D24" s="101" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="96"/>
-      <c r="B25" s="97"/>
-      <c r="C25" s="98" t="s">
+      <c r="A25" s="99"/>
+      <c r="B25" s="100"/>
+      <c r="C25" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="98"/>
+      <c r="D25" s="101"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="96"/>
-      <c r="B26" s="97"/>
-      <c r="C26" s="98" t="s">
+      <c r="A26" s="99"/>
+      <c r="B26" s="100"/>
+      <c r="C26" s="101" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="98"/>
+      <c r="D26" s="101"/>
     </row>
     <row r="27" ht="24" customHeight="1" spans="1:4">
-      <c r="A27" s="96">
+      <c r="A27" s="99">
         <v>9</v>
       </c>
-      <c r="B27" s="97" t="s">
+      <c r="B27" s="100" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="98" t="s">
+      <c r="C27" s="101" t="s">
         <v>43</v>
       </c>
-      <c r="D27" s="98" t="s">
+      <c r="D27" s="101" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="28" ht="32" customHeight="1" spans="1:4">
-      <c r="A28" s="96"/>
-      <c r="B28" s="97"/>
-      <c r="C28" s="98" t="s">
+      <c r="A28" s="99"/>
+      <c r="B28" s="100"/>
+      <c r="C28" s="101" t="s">
         <v>45</v>
       </c>
-      <c r="D28" s="98"/>
+      <c r="D28" s="101"/>
     </row>
     <row r="29" ht="20" customHeight="1" spans="1:4">
-      <c r="A29" s="96">
+      <c r="A29" s="99">
         <v>10</v>
       </c>
-      <c r="B29" s="97" t="s">
+      <c r="B29" s="100" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="98" t="s">
+      <c r="C29" s="101" t="s">
         <v>47</v>
       </c>
-      <c r="D29" s="98" t="s">
+      <c r="D29" s="101" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="96"/>
-      <c r="B30" s="97"/>
-      <c r="C30" s="98" t="s">
+      <c r="A30" s="99"/>
+      <c r="B30" s="100"/>
+      <c r="C30" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="D30" s="98"/>
+      <c r="D30" s="101"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="96"/>
-      <c r="B31" s="97"/>
-      <c r="C31" s="98" t="s">
+      <c r="A31" s="99"/>
+      <c r="B31" s="100"/>
+      <c r="C31" s="101" t="s">
         <v>49</v>
       </c>
-      <c r="D31" s="98"/>
+      <c r="D31" s="101"/>
     </row>
     <row r="32" ht="27" customHeight="1" spans="1:4">
-      <c r="A32" s="96">
+      <c r="A32" s="99">
         <v>11</v>
       </c>
-      <c r="B32" s="97" t="s">
+      <c r="B32" s="100" t="s">
         <v>50</v>
       </c>
-      <c r="C32" s="98" t="s">
+      <c r="C32" s="101" t="s">
         <v>51</v>
       </c>
-      <c r="D32" s="98" t="s">
+      <c r="D32" s="101" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="96"/>
-      <c r="B33" s="97"/>
-      <c r="C33" s="98" t="s">
+      <c r="A33" s="99"/>
+      <c r="B33" s="100"/>
+      <c r="C33" s="101" t="s">
         <v>52</v>
       </c>
-      <c r="D33" s="98"/>
+      <c r="D33" s="101"/>
     </row>
     <row r="34" ht="22" customHeight="1" spans="1:4">
-      <c r="A34" s="96">
+      <c r="A34" s="99">
         <v>12</v>
       </c>
-      <c r="B34" s="97" t="s">
+      <c r="B34" s="100" t="s">
         <v>53</v>
       </c>
-      <c r="C34" s="98" t="s">
+      <c r="C34" s="101" t="s">
         <v>54</v>
       </c>
-      <c r="D34" s="98" t="s">
+      <c r="D34" s="101" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="96"/>
-      <c r="B35" s="97"/>
-      <c r="C35" s="98" t="s">
+      <c r="A35" s="99"/>
+      <c r="B35" s="100"/>
+      <c r="C35" s="101" t="s">
         <v>56</v>
       </c>
-      <c r="D35" s="98"/>
+      <c r="D35" s="101"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="96"/>
-      <c r="B36" s="97"/>
-      <c r="C36" s="98" t="s">
+      <c r="A36" s="99"/>
+      <c r="B36" s="100"/>
+      <c r="C36" s="101" t="s">
         <v>57</v>
       </c>
-      <c r="D36" s="98"/>
+      <c r="D36" s="101"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="96"/>
-      <c r="B37" s="97"/>
-      <c r="C37" s="98" t="s">
+      <c r="A37" s="99"/>
+      <c r="B37" s="100"/>
+      <c r="C37" s="101" t="s">
         <v>58</v>
       </c>
-      <c r="D37" s="98"/>
+      <c r="D37" s="101"/>
     </row>
     <row r="38" ht="36" customHeight="1" spans="1:4">
-      <c r="A38" s="96">
+      <c r="A38" s="99">
         <v>13</v>
       </c>
-      <c r="B38" s="97" t="s">
+      <c r="B38" s="100" t="s">
         <v>59</v>
       </c>
-      <c r="C38" s="98" t="s">
+      <c r="C38" s="101" t="s">
         <v>60</v>
       </c>
-      <c r="D38" s="98"/>
+      <c r="D38" s="101"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="96"/>
-      <c r="B39" s="97"/>
-      <c r="C39" s="98" t="s">
+      <c r="A39" s="99"/>
+      <c r="B39" s="100"/>
+      <c r="C39" s="101" t="s">
         <v>61</v>
       </c>
-      <c r="D39" s="98"/>
+      <c r="D39" s="101"/>
     </row>
     <row r="40" ht="21" customHeight="1" spans="1:4">
-      <c r="A40" s="96">
+      <c r="A40" s="99">
         <v>14</v>
       </c>
-      <c r="B40" s="97" t="s">
+      <c r="B40" s="100" t="s">
         <v>62</v>
       </c>
-      <c r="C40" s="98" t="s">
+      <c r="C40" s="101" t="s">
         <v>63</v>
       </c>
-      <c r="D40" s="98"/>
+      <c r="D40" s="101"/>
     </row>
     <row r="41" ht="24" customHeight="1" spans="1:4">
-      <c r="A41" s="96">
+      <c r="A41" s="99">
         <v>15</v>
       </c>
-      <c r="B41" s="97" t="s">
+      <c r="B41" s="100" t="s">
         <v>64</v>
       </c>
-      <c r="C41" s="98" t="s">
+      <c r="C41" s="101" t="s">
         <v>65</v>
       </c>
-      <c r="D41" s="98" t="s">
+      <c r="D41" s="101" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="96"/>
-      <c r="B42" s="97"/>
-      <c r="C42" s="98" t="s">
+      <c r="A42" s="99"/>
+      <c r="B42" s="100"/>
+      <c r="C42" s="101" t="s">
         <v>67</v>
       </c>
-      <c r="D42" s="98"/>
+      <c r="D42" s="101"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="96"/>
-      <c r="B43" s="97"/>
-      <c r="C43" s="98" t="s">
+      <c r="A43" s="99"/>
+      <c r="B43" s="100"/>
+      <c r="C43" s="101" t="s">
         <v>68</v>
       </c>
-      <c r="D43" s="98"/>
+      <c r="D43" s="101"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="96"/>
-      <c r="B44" s="97"/>
-      <c r="C44" s="98" t="s">
+      <c r="A44" s="99"/>
+      <c r="B44" s="100"/>
+      <c r="C44" s="101" t="s">
         <v>69</v>
       </c>
-      <c r="D44" s="98"/>
+      <c r="D44" s="101"/>
     </row>
     <row r="45" ht="32" customHeight="1" spans="1:4">
-      <c r="A45" s="96">
+      <c r="A45" s="99">
         <v>16</v>
       </c>
-      <c r="B45" s="97" t="s">
+      <c r="B45" s="100" t="s">
         <v>70</v>
       </c>
-      <c r="C45" s="98" t="s">
+      <c r="C45" s="101" t="s">
         <v>71</v>
       </c>
-      <c r="D45" s="98" t="s">
+      <c r="D45" s="101" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="46" ht="35" customHeight="1" spans="1:4">
-      <c r="A46" s="99"/>
-      <c r="B46" s="100"/>
-      <c r="C46" s="101" t="s">
+      <c r="A46" s="102"/>
+      <c r="B46" s="103"/>
+      <c r="C46" s="104" t="s">
         <v>72</v>
       </c>
-      <c r="D46" s="101"/>
+      <c r="D46" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="45">
@@ -6119,10 +6130,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:F16"/>
+  <dimension ref="A3:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -6409,6 +6420,19 @@
       <c r="E16" s="95">
         <f>SUM(E4:E15)</f>
         <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="96"/>
+      <c r="B17" s="97"/>
+      <c r="C17" s="97"/>
+      <c r="D17" s="98">
+        <f>(D16/C16)</f>
+        <v>0.950980392156863</v>
+      </c>
+      <c r="E17" s="98">
+        <f>(E16/D16)</f>
+        <v>0.0515463917525773</v>
       </c>
     </row>
   </sheetData>
@@ -8585,7 +8609,7 @@
   <sheetPr/>
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
